--- a/Jogos_do_Dia/2023-11-17_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-17_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -830,13 +830,13 @@
         <v>2.1</v>
       </c>
       <c r="J3" t="n">
-        <v>4.4</v>
+        <v>4.33</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="M3" t="n">
         <v>1.32</v>
@@ -857,10 +857,10 @@
         <v>3.92</v>
       </c>
       <c r="S3" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U3" t="n">
         <v>1.68</v>
@@ -1108,13 +1108,13 @@
         <v>4.33</v>
       </c>
       <c r="J5" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="K5" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="L5" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="M5" t="n">
         <v>1.53</v>
@@ -1247,13 +1247,13 @@
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="K6" t="n">
         <v>3.05</v>
       </c>
       <c r="L6" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="M6" t="n">
         <v>1.57</v>
@@ -1310,13 +1310,13 @@
         <v>2.65</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AH6" t="n">
         <v>1.18</v>
@@ -1347,6 +1347,145 @@
       </c>
       <c r="AQ6" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45247</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>37</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Londrina</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-11-17_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-17_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -836,7 +836,7 @@
         <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="M3" t="n">
         <v>1.32</v>
@@ -857,10 +857,10 @@
         <v>3.92</v>
       </c>
       <c r="S3" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="T3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
         <v>1.68</v>
@@ -893,43 +893,43 @@
         <v>2.67</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="4">
@@ -1108,13 +1108,13 @@
         <v>4.33</v>
       </c>
       <c r="J5" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="K5" t="n">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="L5" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="M5" t="n">
         <v>1.53</v>
@@ -1135,10 +1135,10 @@
         <v>2.65</v>
       </c>
       <c r="S5" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="T5" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="U5" t="n">
         <v>2.05</v>
@@ -1247,13 +1247,13 @@
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="K6" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="L6" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="M6" t="n">
         <v>1.57</v>
@@ -1274,10 +1274,10 @@
         <v>2.65</v>
       </c>
       <c r="S6" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="T6" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="U6" t="n">
         <v>2.25</v>
@@ -1386,13 +1386,13 @@
         <v>2.5</v>
       </c>
       <c r="J7" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="K7" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="M7" t="n">
         <v>1.53</v>
@@ -1458,10 +1458,10 @@
         <v>1.75</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AJ7" t="n">
         <v>1.26</v>
